--- a/ListaDeEmails.xlsx
+++ b/ListaDeEmails.xlsx
@@ -19,10 +19,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Gabriel de bastiani</t>
+    <t>GABRIEL C BASTIANI</t>
   </si>
   <si>
-    <t>contato@builderseunegocioonline.com</t>
+    <t>contato@gabrielbastiani.com</t>
   </si>
 </sst>
 </file>
